--- a/mcmaster_excel/Metric_Stainless_Steel_Pan_Head_Screws_with_External-Tooth_Lock_Washer.xlsx
+++ b/mcmaster_excel/Metric_Stainless_Steel_Pan_Head_Screws_with_External-Tooth_Lock_Washer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N33"/>
+  <dimension ref="A1:N35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,221 +434,133 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Lg., mm</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Threading</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>HeadDia., mm</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>HeadHt., mm</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>OD,mm.</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Thick.,mm</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>DriveSize</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>TensileStrength, psi</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Specifications Met</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.Qty.</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr"/>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>thread_size</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>material_surface</t>
-        </is>
+      <c r="A1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>5.00</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5.50</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>No. 1</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>70,000</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>ASME B18.13.1M</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>90317A400</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>$11.77</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>M2.5 × 0.45 mm</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>18-8 Stainless Steel</t>
-        </is>
-      </c>
+          <t>Washer</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>Lg., mm</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fully Threaded</t>
+          <t>Threading</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>HeadDia., mm</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>HeadHt., mm</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>OD,mm.</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>Thick.,mm</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>No. 1</t>
+          <t>DriveSize</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>70,000</t>
+          <t>TensileStrength, psi</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>ASME B18.13.1M</t>
+          <t>Specifications Met</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>90317A402</t>
-        </is>
-      </c>
+          <t>Pkg.Qty.</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>11.81</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>M2.5 × 0.45 mm</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>18-8 Stainless Steel</t>
-        </is>
-      </c>
+          <t>Pkg.</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -698,12 +610,12 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>90317A404</t>
+          <t>90317A400</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>11.85</t>
+          <t>$11.77</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -720,7 +632,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -770,12 +682,12 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>90317A406</t>
+          <t>90317A402</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>11.97</t>
+          <t>11.81</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -792,7 +704,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -842,12 +754,12 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>90317A408</t>
+          <t>90317A404</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>12.05</t>
+          <t>11.85</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -864,7 +776,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -909,17 +821,17 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>90317A410</t>
+          <t>90317A406</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>7.12</t>
+          <t>11.97</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -936,7 +848,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -946,17 +858,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>5.60</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>5.84</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -986,7 +898,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>90317A550</t>
+          <t>90317A408</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -996,7 +908,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>M3 × 0.5 mm</t>
+          <t>M2.5 × 0.45 mm</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -1008,7 +920,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1018,17 +930,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>5.60</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>6.50</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1038,7 +950,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>No. 2</t>
+          <t>No. 1</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -1053,22 +965,22 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>90317A870</t>
+          <t>90317A410</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>14.29</t>
+          <t>7.12</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>M3 × 0.5 mm</t>
+          <t>M2.5 × 0.45 mm</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1080,7 +992,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1100,7 +1012,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>5.69</t>
+          <t>5.84</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1130,12 +1042,12 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>90317A523</t>
+          <t>90317A550</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>5.33</t>
+          <t>12.05</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -1152,7 +1064,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1172,7 +1084,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>5.69</t>
+          <t>6.50</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1182,7 +1094,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>No. 1</t>
+          <t>No. 2</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1202,12 +1114,12 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>90317A526</t>
+          <t>90317A870</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>5.68</t>
+          <t>14.29</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -1224,7 +1136,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1244,7 +1156,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>5.49</t>
+          <t>5.69</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1269,17 +1181,17 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>90317A529</t>
+          <t>90317A523</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>3.05</t>
+          <t>5.33</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -1296,7 +1208,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1341,17 +1253,17 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>90317A532</t>
+          <t>90317A526</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>7.33</t>
+          <t>5.68</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -1368,7 +1280,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1388,7 +1300,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>6.50</t>
+          <t>5.49</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1398,7 +1310,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>No. 2</t>
+          <t>No. 1</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1418,12 +1330,12 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>90317A880</t>
+          <t>90317A529</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>6.65</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -1440,7 +1352,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1460,7 +1372,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>5.85</t>
+          <t>5.69</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1485,17 +1397,17 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>90317A711</t>
+          <t>90317A532</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>15.17</t>
+          <t>7.33</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -1512,7 +1424,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1522,22 +1434,22 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>8.00</t>
+          <t>5.60</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>7.92</t>
+          <t>6.50</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1552,7 +1464,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>JIS B 1188</t>
+          <t>ASME B18.13.1M</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1562,17 +1474,17 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>90317A571</t>
+          <t>90317A880</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>3.69</t>
+          <t>6.65</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>M4 × 0.7 mm</t>
+          <t>M3 × 0.5 mm</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -1584,7 +1496,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1594,27 +1506,27 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>8.00</t>
+          <t>5.60</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>7.87</t>
+          <t>5.85</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>No. 2</t>
+          <t>No. 1</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1629,22 +1541,22 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>90317A573</t>
+          <t>90317A711</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>3.69</t>
+          <t>15.17</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>M4 × 0.7 mm</t>
+          <t>M3 × 0.5 mm</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -1656,62 +1568,62 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>No. 2</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>JIS B 1188</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>8.00</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>3.10</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>7.82</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>0.60</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>No. 2</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>70,000</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>ASME B18.13.1M</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>90317A575</t>
+          <t>90317A571</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>4.94</t>
+          <t>3.69</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
@@ -1728,7 +1640,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1748,7 +1660,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>7.82</t>
+          <t>7.87</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1778,12 +1690,12 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>90317A579</t>
+          <t>90317A573</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>5.05</t>
+          <t>3.69</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
@@ -1800,7 +1712,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1820,7 +1732,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>8.50</t>
+          <t>7.82</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1840,7 +1752,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>JIS B 1188-C</t>
+          <t>ASME B18.13.1M</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1850,12 +1762,12 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>90317A582</t>
+          <t>90317A575</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>11.91</t>
+          <t>4.94</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
@@ -1872,7 +1784,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1892,7 +1804,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>8.05</t>
+          <t>7.82</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1917,17 +1829,17 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>90317A585</t>
+          <t>90317A579</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>6.80</t>
+          <t>5.05</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
@@ -1944,7 +1856,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1964,7 +1876,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>8.05</t>
+          <t>8.50</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1984,22 +1896,22 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>ASME B18.13.1M</t>
+          <t>JIS B 1188-C</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>90317A590</t>
+          <t>90317A582</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>6.92</t>
+          <t>11.91</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
@@ -2016,7 +1928,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -2026,22 +1938,22 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>8.00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>8.05</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -2061,22 +1973,22 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>90317A598</t>
+          <t>90317A585</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>8.33</t>
+          <t>6.80</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>M5 × 0.8 mm</t>
+          <t>M4 × 0.7 mm</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -2088,7 +2000,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -2098,22 +2010,22 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>8.00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>8.05</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -2133,22 +2045,22 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>90317A890</t>
+          <t>90317A590</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>12.90</t>
+          <t>6.92</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>M5 × 0.8 mm</t>
+          <t>M4 × 0.7 mm</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -2160,7 +2072,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -2210,12 +2122,12 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>90317A602</t>
+          <t>90317A598</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>8.56</t>
+          <t>8.33</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
@@ -2232,7 +2144,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2282,12 +2194,12 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>90317A605</t>
+          <t>90317A890</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>8.72</t>
+          <t>12.90</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
@@ -2304,7 +2216,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2354,12 +2266,12 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>90317A607</t>
+          <t>90317A602</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>8.84</t>
+          <t>8.56</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
@@ -2376,7 +2288,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2386,22 +2298,22 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>9.50</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>10.50</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -2426,12 +2338,12 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>90317A712</t>
+          <t>90317A605</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>7.70</t>
+          <t>8.72</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
@@ -2448,67 +2360,67 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>No. 2</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>ASME B18.13.1M</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>12.00</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>4.60</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>12.10</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>No. 3</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>70,000</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>ASME B18.13.1M</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>90317A713</t>
+          <t>90317A607</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>8.68</t>
+          <t>8.84</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>M6 × 1 mm</t>
+          <t>M5 × 0.8 mm</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -2520,7 +2432,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2530,27 +2442,27 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>9.50</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11.00</t>
+          <t>10.50</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>No. 3</t>
+          <t>No. 2</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -2570,17 +2482,17 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>90317A891</t>
+          <t>90317A712</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>15.95</t>
+          <t>7.70</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>M6 × 1 mm</t>
+          <t>M5 × 0.8 mm</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -2592,7 +2504,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2642,12 +2554,12 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>90317A714</t>
+          <t>90317A713</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>9.19</t>
+          <t>8.68</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
@@ -2664,7 +2576,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2684,7 +2596,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>12.10</t>
+          <t>11.00</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2714,12 +2626,12 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>90317A715</t>
+          <t>90317A891</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>9.54</t>
+          <t>15.95</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
@@ -2736,70 +2648,214 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>12.00</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>12.10</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>No. 3</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>ASME B18.13.1M</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>90317A714</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>12.00</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>12.10</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>No. 3</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>ASME B18.13.1M</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>90317A715</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>9.54</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
           <t>25</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
         <is>
           <t>12.00</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="D35" t="inlineStr">
         <is>
           <t>4.60</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>12.10</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>0.75</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>No. 3</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>70,000</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>ASME B18.13.1M</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>ASME B18.13.1M</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="K33" t="inlineStr">
+      <c r="K35" t="inlineStr">
         <is>
           <t>90317A716</t>
         </is>
       </c>
-      <c r="L33" t="inlineStr">
+      <c r="L35" t="inlineStr">
         <is>
           <t>9.97</t>
         </is>
       </c>
-      <c r="M33" t="inlineStr">
+      <c r="M35" t="inlineStr">
         <is>
           <t>M6 × 1 mm</t>
         </is>
       </c>
-      <c r="N33" t="inlineStr">
+      <c r="N35" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
         </is>
